--- a/WebContent/docs/card.xlsx
+++ b/WebContent/docs/card.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>卡号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,11 +31,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类目</t>
+    <t>充值时限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.xd.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>018303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a7309e6857a27e08f74c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>018312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d35f5e4099bf4b8b3ad6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001712072041420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领奖大使兑换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,15 +127,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,15 +441,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="22.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -424,10 +468,58 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
